--- a/scuelo/export_sics/Export SICS 2.1.75 V2.xlsx
+++ b/scuelo/export_sics/Export SICS 2.1.75 V2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Classe" sheetId="1" state="visible" r:id="rId1"/>
